--- a/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_22_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS _SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_22_.xlsx
@@ -385,12 +385,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -531,12 +532,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -556,7 +558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -677,12 +679,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -696,7 +699,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -764,212 +767,220 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Unstuffing Date</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>In Trailer</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1110,12 +1121,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1129,7 +1141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1199,215 +1211,223 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>CNFCommodity</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Current Depo</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Out Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Out Location</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>Total Lot</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Out Transport</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>Out Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1548,12 +1568,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1567,7 +1588,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AC89"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1632,268 +1653,168 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:82</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>8998</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>NYKU4222392</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>ONB</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>ONE</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>KOTA ARIF</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>2039/2018</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>A A COARSE SPUN LTD</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>A1430991</t>
-        </is>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>2018-11726</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="d">
-        <v>2018-07-09T00:00:00</v>
-      </c>
-      <c r="U7" s="0" t="d">
-        <v>2018-07-14T00:00:00</v>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
-          <t>ONEYRICU47796600</t>
-        </is>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8999</v>
+        <v>8998</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>TCNU8265589</t>
+          <t>NYKU4222392</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1950,13 +1871,13 @@
       </c>
       <c r="Q8" s="0" t="inlineStr">
         <is>
-          <t>A1361875</t>
+          <t>A1430991</t>
         </is>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>2018-11730</t>
+          <t>2018-11726</t>
         </is>
       </c>
       <c r="T8" s="0" t="d">
@@ -1996,11 +1917,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9000</v>
+        <v>8999</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>TEMU8903066</t>
+          <t>TCNU8265589</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2057,20 +1978,20 @@
       </c>
       <c r="Q9" s="0" t="inlineStr">
         <is>
-          <t>A1430965</t>
+          <t>A1361875</t>
         </is>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>2018-11822</t>
+          <t>2018-11730</t>
         </is>
       </c>
       <c r="T9" s="0" t="d">
         <v>2018-07-09T00:00:00</v>
       </c>
       <c r="U9" s="0" t="d">
-        <v>2018-07-16T00:00:00</v>
+        <v>2018-07-14T00:00:00</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
@@ -2103,11 +2024,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>TCNU3084865</t>
+          <t>TEMU8903066</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2164,13 +2085,13 @@
       </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
-          <t>A1430957</t>
+          <t>A1430965</t>
         </is>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>2018-11845</t>
+          <t>2018-11822</t>
         </is>
       </c>
       <c r="T10" s="0" t="d">
@@ -2210,11 +2131,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>TCNU8689735</t>
+          <t>TCNU3084865</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2271,13 +2192,13 @@
       </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
-          <t>A1361876</t>
+          <t>A1430957</t>
         </is>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>2018-11844</t>
+          <t>2018-11845</t>
         </is>
       </c>
       <c r="T11" s="0" t="d">
@@ -2317,11 +2238,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NYKU4310512</t>
+          <t>TCNU8689735</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2378,20 +2299,20 @@
       </c>
       <c r="Q12" s="0" t="inlineStr">
         <is>
-          <t>A1361844</t>
+          <t>A1361876</t>
         </is>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>2018-11725</t>
+          <t>2018-11844</t>
         </is>
       </c>
       <c r="T12" s="0" t="d">
         <v>2018-07-09T00:00:00</v>
       </c>
       <c r="U12" s="0" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-07-16T00:00:00</v>
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
@@ -2424,11 +2345,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>MOTU6707799</t>
+          <t>NYKU4310512</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2485,13 +2406,13 @@
       </c>
       <c r="Q13" s="0" t="inlineStr">
         <is>
-          <t>A1361862</t>
+          <t>A1361844</t>
         </is>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>2018-11850</t>
+          <t>2018-11725</t>
         </is>
       </c>
       <c r="T13" s="0" t="d">
@@ -2531,11 +2452,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9034</v>
+        <v>9004</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>TCNU4831841</t>
+          <t>MOTU6707799</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2563,12 +2484,12 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>HORAI BRIDGE</t>
+          <t>KOTA ARIF</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>2278/2018</t>
+          <t>2039/2018</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
@@ -2592,20 +2513,20 @@
       </c>
       <c r="Q14" s="0" t="inlineStr">
         <is>
-          <t>UL1538950</t>
+          <t>A1361862</t>
         </is>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>2018-12761</t>
+          <t>2018-11850</t>
         </is>
       </c>
       <c r="T14" s="0" t="d">
-        <v>2018-07-29T00:00:00</v>
+        <v>2018-07-09T00:00:00</v>
       </c>
       <c r="U14" s="0" t="d">
-        <v>2018-07-29T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
@@ -2622,11 +2543,11 @@
       </c>
       <c r="Y14" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU66956500</t>
+          <t>ONEYRICU47796600</t>
         </is>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0" t="inlineStr">
@@ -2638,11 +2559,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>9035</v>
+        <v>9034</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>FSCU6294283</t>
+          <t>TCNU4831841</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2699,20 +2620,20 @@
       </c>
       <c r="Q15" s="0" t="inlineStr">
         <is>
-          <t>UL1538948</t>
+          <t>UL1538950</t>
         </is>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>2018-12763</t>
+          <t>2018-12761</t>
         </is>
       </c>
       <c r="T15" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="U15" s="0" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-07-29T00:00:00</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
@@ -2745,11 +2666,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>9036</v>
+        <v>9035</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>CAIU8788354</t>
+          <t>FSCU6294283</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2806,13 +2727,13 @@
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>UL1538920</t>
+          <t>UL1538948</t>
         </is>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>2018-12783</t>
+          <t>2018-12763</t>
         </is>
       </c>
       <c r="T16" s="0" t="d">
@@ -2852,11 +2773,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>9037</v>
+        <v>9036</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>TCNU5946737</t>
+          <t>CAIU8788354</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2913,20 +2834,20 @@
       </c>
       <c r="Q17" s="0" t="inlineStr">
         <is>
-          <t>UL1538922</t>
+          <t>UL1538920</t>
         </is>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>2018-12853</t>
+          <t>2018-12783</t>
         </is>
       </c>
       <c r="T17" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="U17" s="0" t="d">
-        <v>2018-07-31T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -2959,11 +2880,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9038</v>
+        <v>9037</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>TCLU5145561</t>
+          <t>TCNU5946737</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -3020,20 +2941,20 @@
       </c>
       <c r="Q18" s="0" t="inlineStr">
         <is>
-          <t>UL1538949</t>
+          <t>UL1538922</t>
         </is>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>2018-12885</t>
+          <t>2018-12853</t>
         </is>
       </c>
       <c r="T18" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="U18" s="0" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-07-31T00:00:00</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
@@ -3066,11 +2987,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9039</v>
+        <v>9038</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>TCNU5615180</t>
+          <t>TCLU5145561</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3127,20 +3048,20 @@
       </c>
       <c r="Q19" s="0" t="inlineStr">
         <is>
-          <t>B1086555</t>
+          <t>UL1538949</t>
         </is>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>2018-12782</t>
+          <t>2018-12885</t>
         </is>
       </c>
       <c r="T19" s="0" t="d">
         <v>2018-07-29T00:00:00</v>
       </c>
       <c r="U19" s="0" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
@@ -3157,11 +3078,11 @@
       </c>
       <c r="Y19" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU66948600</t>
+          <t>ONEYRICU66956500</t>
         </is>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0" t="inlineStr">
@@ -3173,11 +3094,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>9207</v>
+        <v>9039</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>TCNU5902678</t>
+          <t>TCNU5615180</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3205,17 +3126,17 @@
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>KOTA WAJAR</t>
+          <t>HORAI BRIDGE</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>2513/2018</t>
+          <t>2278/2018</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>RENATA LIMITED (TRADING DIVISION)</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -3229,25 +3150,25 @@
       <c r="O20" s="0"/>
       <c r="P20" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="Q20" s="0" t="inlineStr">
         <is>
-          <t>H5866830</t>
+          <t>B1086555</t>
         </is>
       </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>2018-14338</t>
+          <t>2018-12782</t>
         </is>
       </c>
       <c r="T20" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
+        <v>2018-07-29T00:00:00</v>
       </c>
       <c r="U20" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
@@ -3264,11 +3185,11 @@
       </c>
       <c r="Y20" s="0" t="inlineStr">
         <is>
-          <t>ONEYAKLU05581400</t>
+          <t>ONEYRICU66948600</t>
         </is>
       </c>
       <c r="Z20" s="0" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0" t="inlineStr">
@@ -3280,19 +3201,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>9208</v>
+        <v>9207</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NYKU3655952</t>
+          <t>TCNU5902678</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -3341,20 +3262,20 @@
       </c>
       <c r="Q21" s="0" t="inlineStr">
         <is>
-          <t>H5866821</t>
+          <t>H5866830</t>
         </is>
       </c>
       <c r="R21" s="0"/>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>2018-14522</t>
+          <t>2018-14338</t>
         </is>
       </c>
       <c r="T21" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="U21" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
+        <v>2018-09-02T00:00:00</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
@@ -3387,19 +3308,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>9229</v>
+        <v>9208</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NYKU0826820</t>
+          <t>NYKU3655952</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -3419,17 +3340,17 @@
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>KOTA WAJAR</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>2518/2018</t>
+          <t>2513/2018</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>GAZI AUTO TYRES</t>
+          <t>RENATA LIMITED (TRADING DIVISION)</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -3443,25 +3364,25 @@
       <c r="O22" s="0"/>
       <c r="P22" s="0" t="inlineStr">
         <is>
-          <t>CARBON BLACK</t>
+          <t>ANIMAL FEED</t>
         </is>
       </c>
       <c r="Q22" s="0" t="inlineStr">
         <is>
-          <t>IN0010412</t>
+          <t>H5866821</t>
         </is>
       </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>2018-14384</t>
+          <t>2018-14522</t>
         </is>
       </c>
       <c r="T22" s="0" t="d">
-        <v>2018-08-26T00:00:00</v>
+        <v>2018-09-01T00:00:00</v>
       </c>
       <c r="U22" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
+        <v>2018-09-07T00:00:00</v>
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
@@ -3478,11 +3399,11 @@
       </c>
       <c r="Y22" s="0" t="inlineStr">
         <is>
-          <t>ONEYMAAU12050300</t>
+          <t>ONEYAKLU05581400</t>
         </is>
       </c>
       <c r="Z22" s="0" t="n">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0" t="inlineStr">
@@ -3494,11 +3415,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>9230</v>
+        <v>9229</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>TGHU6584700</t>
+          <t>NYKU0826820</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3555,13 +3476,13 @@
       </c>
       <c r="Q23" s="0" t="inlineStr">
         <is>
-          <t>IN0010408</t>
+          <t>IN0010412</t>
         </is>
       </c>
       <c r="R23" s="0"/>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>2018-14389</t>
+          <t>2018-14384</t>
         </is>
       </c>
       <c r="T23" s="0" t="d">
@@ -3601,11 +3522,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>9231</v>
+        <v>9230</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NYKU5752479</t>
+          <t>TGHU6584700</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3662,20 +3583,20 @@
       </c>
       <c r="Q24" s="0" t="inlineStr">
         <is>
-          <t>IN0010438</t>
+          <t>IN0010408</t>
         </is>
       </c>
       <c r="R24" s="0"/>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>2018-14744</t>
+          <t>2018-14389</t>
         </is>
       </c>
       <c r="T24" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U24" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
+        <v>2018-09-02T00:00:00</v>
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
@@ -3708,11 +3629,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>9232</v>
+        <v>9231</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>TCLU1496640</t>
+          <t>NYKU5752479</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3769,13 +3690,13 @@
       </c>
       <c r="Q25" s="0" t="inlineStr">
         <is>
-          <t>IN0010422</t>
+          <t>IN0010438</t>
         </is>
       </c>
       <c r="R25" s="0"/>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>2018-14745</t>
+          <t>2018-14744</t>
         </is>
       </c>
       <c r="T25" s="0" t="d">
@@ -3815,11 +3736,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>9233</v>
+        <v>9232</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>TCNU7737335</t>
+          <t>TCLU1496640</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3876,20 +3797,20 @@
       </c>
       <c r="Q26" s="0" t="inlineStr">
         <is>
-          <t>IN0010426</t>
+          <t>IN0010422</t>
         </is>
       </c>
       <c r="R26" s="0"/>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>2018-15009</t>
+          <t>2018-14745</t>
         </is>
       </c>
       <c r="T26" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U26" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
+        <v>2018-09-05T00:00:00</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
@@ -3922,11 +3843,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>9234</v>
+        <v>9233</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TCLU6421860</t>
+          <t>TCNU7737335</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3983,13 +3904,13 @@
       </c>
       <c r="Q27" s="0" t="inlineStr">
         <is>
-          <t>IN0010421</t>
+          <t>IN0010426</t>
         </is>
       </c>
       <c r="R27" s="0"/>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>2018-14353</t>
+          <t>2018-15009</t>
         </is>
       </c>
       <c r="T27" s="0" t="d">
@@ -4029,11 +3950,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>9265</v>
+        <v>9234</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>TRLU8689655</t>
+          <t>TCLU6421860</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4041,7 +3962,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -4061,17 +3982,17 @@
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>2591/2018</t>
+          <t>2518/2018</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>GAZI AUTO TYRES</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
@@ -4085,25 +4006,25 @@
       <c r="O28" s="0"/>
       <c r="P28" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
+          <t>CARBON BLACK</t>
         </is>
       </c>
       <c r="Q28" s="0" t="inlineStr">
         <is>
-          <t>HLD5023900</t>
+          <t>IN0010421</t>
         </is>
       </c>
       <c r="R28" s="0"/>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>2018-14605</t>
+          <t>2018-14353</t>
         </is>
       </c>
       <c r="T28" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
+        <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U28" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
+        <v>2018-09-10T00:00:00</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
@@ -4120,11 +4041,11 @@
       </c>
       <c r="Y28" s="0" t="inlineStr">
         <is>
-          <t>ONEYGOTU04027600</t>
+          <t>ONEYMAAU12050300</t>
         </is>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="AA28" s="0"/>
       <c r="AB28" s="0" t="inlineStr">
@@ -4136,11 +4057,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>9266</v>
+        <v>9265</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>NYKU8112794</t>
+          <t>TRLU8689655</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4195,13 +4116,15 @@
           <t>ANIMAL FEED</t>
         </is>
       </c>
-      <c r="Q29" s="0" t="n">
-        <v>14486</v>
+      <c r="Q29" s="0" t="inlineStr">
+        <is>
+          <t>HLD5023900</t>
+        </is>
       </c>
       <c r="R29" s="0"/>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>2018-14679</t>
+          <t>2018-14605</t>
         </is>
       </c>
       <c r="T29" s="0" t="d">
@@ -4241,15 +4164,15 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>9267</v>
+        <v>9266</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>TCLU2431704</t>
+          <t>NYKU8112794</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
@@ -4301,19 +4224,19 @@
         </is>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>14488</v>
+        <v>14486</v>
       </c>
       <c r="R30" s="0"/>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>2018-14767</t>
+          <t>2018-14679</t>
         </is>
       </c>
       <c r="T30" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
       <c r="U30" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
+        <v>2018-09-04T00:00:00</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
@@ -4346,19 +4269,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>9268</v>
+        <v>9267</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>NYKU4021612</t>
+          <t>TCLU2431704</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
@@ -4378,17 +4301,17 @@
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>2518/2018</t>
+          <t>2591/2018</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>GAZI AUTO TYRES</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
@@ -4402,25 +4325,23 @@
       <c r="O31" s="0"/>
       <c r="P31" s="0" t="inlineStr">
         <is>
-          <t>CARBON BLACK</t>
-        </is>
-      </c>
-      <c r="Q31" s="0" t="inlineStr">
-        <is>
-          <t>IN0013407</t>
-        </is>
+          <t>ANIMAL FEED</t>
+        </is>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>14488</v>
       </c>
       <c r="R31" s="0"/>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>2018-14618</t>
+          <t>2018-14767</t>
         </is>
       </c>
       <c r="T31" s="0" t="d">
-        <v>2018-08-26T00:00:00</v>
+        <v>2018-09-02T00:00:00</v>
       </c>
       <c r="U31" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
+        <v>2018-09-05T00:00:00</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
@@ -4437,11 +4358,11 @@
       </c>
       <c r="Y31" s="0" t="inlineStr">
         <is>
-          <t>ONEYMAAU11798700</t>
+          <t>ONEYGOTU04027600</t>
         </is>
       </c>
       <c r="Z31" s="0" t="n">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="AA31" s="0"/>
       <c r="AB31" s="0" t="inlineStr">
@@ -4453,11 +4374,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>9269</v>
+        <v>9268</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>MOTU0748194</t>
+          <t>NYKU4021612</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4514,20 +4435,20 @@
       </c>
       <c r="Q32" s="0" t="inlineStr">
         <is>
-          <t>IN0013402</t>
+          <t>IN0013407</t>
         </is>
       </c>
       <c r="R32" s="0"/>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>2018-14746</t>
+          <t>2018-14618</t>
         </is>
       </c>
       <c r="T32" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U32" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
+        <v>2018-09-04T00:00:00</v>
       </c>
       <c r="V32" s="0" t="inlineStr">
         <is>
@@ -4560,11 +4481,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>9270</v>
+        <v>9269</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>MOTU5807432</t>
+          <t>MOTU0748194</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4621,13 +4542,13 @@
       </c>
       <c r="Q33" s="0" t="inlineStr">
         <is>
-          <t>IN0013480</t>
+          <t>IN0013402</t>
         </is>
       </c>
       <c r="R33" s="0"/>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>2018-14729</t>
+          <t>2018-14746</t>
         </is>
       </c>
       <c r="T33" s="0" t="d">
@@ -4667,11 +4588,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>9271</v>
+        <v>9270</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>NYKU5950290</t>
+          <t>MOTU5807432</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4728,20 +4649,20 @@
       </c>
       <c r="Q34" s="0" t="inlineStr">
         <is>
-          <t>IN0013315</t>
+          <t>IN0013480</t>
         </is>
       </c>
       <c r="R34" s="0"/>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>2018-14624</t>
+          <t>2018-14729</t>
         </is>
       </c>
       <c r="T34" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U34" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
+        <v>2018-09-05T00:00:00</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
@@ -4774,11 +4695,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>9272</v>
+        <v>9271</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>CAIU9371128</t>
+          <t>NYKU5950290</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4835,13 +4756,13 @@
       </c>
       <c r="Q35" s="0" t="inlineStr">
         <is>
-          <t>IN0013413</t>
+          <t>IN0013315</t>
         </is>
       </c>
       <c r="R35" s="0"/>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>2018-14614</t>
+          <t>2018-14624</t>
         </is>
       </c>
       <c r="T35" s="0" t="d">
@@ -4881,11 +4802,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9273</v>
+        <v>9272</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>TGHU9243375</t>
+          <t>CAIU9371128</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4942,13 +4863,13 @@
       </c>
       <c r="Q36" s="0" t="inlineStr">
         <is>
-          <t>IN0013464</t>
+          <t>IN0013413</t>
         </is>
       </c>
       <c r="R36" s="0"/>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>2018-14623</t>
+          <t>2018-14614</t>
         </is>
       </c>
       <c r="T36" s="0" t="d">
@@ -4988,11 +4909,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9274</v>
+        <v>9273</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>TCLU5793780</t>
+          <t>TGHU9243375</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -5049,20 +4970,20 @@
       </c>
       <c r="Q37" s="0" t="inlineStr">
         <is>
-          <t>IN0013418</t>
+          <t>IN0013464</t>
         </is>
       </c>
       <c r="R37" s="0"/>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>2018-15052</t>
+          <t>2018-14623</t>
         </is>
       </c>
       <c r="T37" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U37" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
+        <v>2018-09-07T00:00:00</v>
       </c>
       <c r="V37" s="0" t="inlineStr">
         <is>
@@ -5095,11 +5016,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>9275</v>
+        <v>9274</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>XINU8144495</t>
+          <t>TCLU5793780</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -5156,20 +5077,20 @@
       </c>
       <c r="Q38" s="0" t="inlineStr">
         <is>
-          <t>IN0013462</t>
+          <t>IN0013418</t>
         </is>
       </c>
       <c r="R38" s="0"/>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>2018-14390</t>
+          <t>2018-15052</t>
         </is>
       </c>
       <c r="T38" s="0" t="d">
         <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U38" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
@@ -5202,19 +5123,19 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>9277</v>
+        <v>9275</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>TCKU2025441</t>
+          <t>XINU8144495</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -5234,17 +5155,17 @@
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>KOTA BUANA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>2602/2018</t>
+          <t>2518/2018</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>GAZI AUTO TYRES</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -5258,23 +5179,25 @@
       <c r="O39" s="0"/>
       <c r="P39" s="0" t="inlineStr">
         <is>
-          <t>FISH MEAL</t>
-        </is>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>8097544</v>
+          <t>CARBON BLACK</t>
+        </is>
+      </c>
+      <c r="Q39" s="0" t="inlineStr">
+        <is>
+          <t>IN0013462</t>
+        </is>
       </c>
       <c r="R39" s="0"/>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>2018-14889</t>
+          <t>2018-14390</t>
         </is>
       </c>
       <c r="T39" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
+        <v>2018-08-26T00:00:00</v>
       </c>
       <c r="U39" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
+        <v>2018-09-10T00:00:00</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
@@ -5291,11 +5214,11 @@
       </c>
       <c r="Y39" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU93305700</t>
+          <t>ONEYMAAU11798700</t>
         </is>
       </c>
       <c r="Z39" s="0" t="n">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="AA39" s="0"/>
       <c r="AB39" s="0" t="inlineStr">
@@ -5307,11 +5230,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>9278</v>
+        <v>9277</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>NYKU3356123</t>
+          <t>TCKU2025441</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5367,12 +5290,12 @@
         </is>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>8097551</v>
+        <v>8097544</v>
       </c>
       <c r="R40" s="0"/>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>2018-14916</t>
+          <t>2018-14889</t>
         </is>
       </c>
       <c r="T40" s="0" t="d">
@@ -5412,11 +5335,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>9279</v>
+        <v>9278</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>TCLU3279833</t>
+          <t>NYKU3356123</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5472,12 +5395,12 @@
         </is>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>8097541</v>
+        <v>8097551</v>
       </c>
       <c r="R41" s="0"/>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>2018-14920</t>
+          <t>2018-14916</t>
         </is>
       </c>
       <c r="T41" s="0" t="d">
@@ -5517,11 +5440,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>9280</v>
+        <v>9279</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>BSIU2458495</t>
+          <t>TCLU3279833</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5577,19 +5500,19 @@
         </is>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>8097542</v>
+        <v>8097541</v>
       </c>
       <c r="R42" s="0"/>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>2018-14945</t>
+          <t>2018-14920</t>
         </is>
       </c>
       <c r="T42" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U42" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
+        <v>2018-09-06T00:00:00</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
@@ -5622,11 +5545,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>9281</v>
+        <v>9280</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>TRLU9061616</t>
+          <t>BSIU2458495</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5682,12 +5605,12 @@
         </is>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>8097545</v>
+        <v>8097542</v>
       </c>
       <c r="R43" s="0"/>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>2018-14950</t>
+          <t>2018-14945</t>
         </is>
       </c>
       <c r="T43" s="0" t="d">
@@ -5727,11 +5650,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>9282</v>
+        <v>9281</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>MOAU0744187</t>
+          <t>TRLU9061616</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5787,19 +5710,19 @@
         </is>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>8097546</v>
+        <v>8097545</v>
       </c>
       <c r="R44" s="0"/>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>2018-14919</t>
+          <t>2018-14950</t>
         </is>
       </c>
       <c r="T44" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U44" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
+        <v>2018-09-07T00:00:00</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
@@ -5832,11 +5755,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>9283</v>
+        <v>9282</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>TRHU2458075</t>
+          <t>MOAU0744187</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5892,12 +5815,12 @@
         </is>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>8097549</v>
+        <v>8097546</v>
       </c>
       <c r="R45" s="0"/>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>2018-15006</t>
+          <t>2018-14919</t>
         </is>
       </c>
       <c r="T45" s="0" t="d">
@@ -5937,11 +5860,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>9284</v>
+        <v>9283</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>TRHU2359323</t>
+          <t>TRHU2458075</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -5997,12 +5920,12 @@
         </is>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>8097547</v>
+        <v>8097549</v>
       </c>
       <c r="R46" s="0"/>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>2018-15019</t>
+          <t>2018-15006</t>
         </is>
       </c>
       <c r="T46" s="0" t="d">
@@ -6042,11 +5965,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>9285</v>
+        <v>9284</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>TRHU3945756</t>
+          <t>TRHU2359323</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -6102,19 +6025,19 @@
         </is>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>8097543</v>
+        <v>8097547</v>
       </c>
       <c r="R47" s="0"/>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>2018-15107</t>
+          <t>2018-15019</t>
         </is>
       </c>
       <c r="T47" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U47" s="0" t="d">
-        <v>2018-09-09T00:00:00</v>
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="V47" s="0" t="inlineStr">
         <is>
@@ -6147,11 +6070,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>9286</v>
+        <v>9285</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>TRLU9760172</t>
+          <t>TRHU3945756</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6207,12 +6130,12 @@
         </is>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>8097548</v>
+        <v>8097543</v>
       </c>
       <c r="R48" s="0"/>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>2018-15024</t>
+          <t>2018-15107</t>
         </is>
       </c>
       <c r="T48" s="0" t="d">
@@ -6252,19 +6175,19 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>9386</v>
+        <v>9286</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>TRLU7499033</t>
+          <t>TRLU9760172</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -6284,17 +6207,17 @@
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>KOTA BINTANG</t>
+          <t>KOTA BUANA</t>
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>2620/2018</t>
+          <t>2602/2018</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>AMIN TRADING CORPORATION</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
@@ -6308,18 +6231,16 @@
       <c r="O49" s="0"/>
       <c r="P49" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="Q49" s="0" t="inlineStr">
-        <is>
-          <t>MOLBX76422</t>
-        </is>
+          <t>FISH MEAL</t>
+        </is>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>8097548</v>
       </c>
       <c r="R49" s="0"/>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>2018-15094</t>
+          <t>2018-15024</t>
         </is>
       </c>
       <c r="T49" s="0" t="d">
@@ -6343,11 +6264,11 @@
       </c>
       <c r="Y49" s="0" t="inlineStr">
         <is>
-          <t>ONEYSUBU09120800</t>
+          <t>ONEYRICU93305700</t>
         </is>
       </c>
       <c r="Z49" s="0" t="n">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="AA49" s="0"/>
       <c r="AB49" s="0" t="inlineStr">
@@ -6359,11 +6280,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>9387</v>
+        <v>9386</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>SEGU4453787</t>
+          <t>TRLU7499033</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6420,13 +6341,13 @@
       </c>
       <c r="Q50" s="0" t="inlineStr">
         <is>
-          <t>MOLBX76461</t>
+          <t>MOLBX76422</t>
         </is>
       </c>
       <c r="R50" s="0"/>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>2018-15096</t>
+          <t>2018-15094</t>
         </is>
       </c>
       <c r="T50" s="0" t="d">
@@ -6466,11 +6387,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>9388</v>
+        <v>9387</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>CAIU9497672</t>
+          <t>SEGU4453787</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6527,13 +6448,13 @@
       </c>
       <c r="Q51" s="0" t="inlineStr">
         <is>
-          <t>MOLBX76446</t>
+          <t>MOLBX76461</t>
         </is>
       </c>
       <c r="R51" s="0"/>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>2018-15097</t>
+          <t>2018-15096</t>
         </is>
       </c>
       <c r="T51" s="0" t="d">
@@ -6573,11 +6494,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>9389</v>
+        <v>9388</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>TCLU9612411</t>
+          <t>CAIU9497672</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6634,20 +6555,20 @@
       </c>
       <c r="Q52" s="0" t="inlineStr">
         <is>
-          <t>MOLBX76421</t>
+          <t>MOLBX76446</t>
         </is>
       </c>
       <c r="R52" s="0"/>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>2018-15112</t>
+          <t>2018-15097</t>
         </is>
       </c>
       <c r="T52" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U52" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-09T00:00:00</v>
       </c>
       <c r="V52" s="0" t="inlineStr">
         <is>
@@ -6680,11 +6601,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>9390</v>
+        <v>9389</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>MOFU0652966</t>
+          <t>TCLU9612411</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6692,7 +6613,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -6722,7 +6643,7 @@
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>AMIN TRADING CORPORATION</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
@@ -6739,20 +6660,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q53" s="0" t="n">
-        <v>301268</v>
+      <c r="Q53" s="0" t="inlineStr">
+        <is>
+          <t>MOLBX76421</t>
+        </is>
       </c>
       <c r="R53" s="0"/>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>2018-15229</t>
+          <t>2018-15112</t>
         </is>
       </c>
       <c r="T53" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U53" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V53" s="0" t="inlineStr">
         <is>
@@ -6769,11 +6692,11 @@
       </c>
       <c r="Y53" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICUC5999800</t>
+          <t>ONEYSUBU09120800</t>
         </is>
       </c>
       <c r="Z53" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA53" s="0"/>
       <c r="AB53" s="0" t="inlineStr">
@@ -6785,11 +6708,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>9391</v>
+        <v>9390</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>TCLU4740636</t>
+          <t>MOFU0652966</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6845,19 +6768,19 @@
         </is>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>10235</v>
+        <v>301268</v>
       </c>
       <c r="R54" s="0"/>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>2018-15413</t>
+          <t>2018-15229</t>
         </is>
       </c>
       <c r="T54" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U54" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-11T00:00:00</v>
       </c>
       <c r="V54" s="0" t="inlineStr">
         <is>
@@ -6890,15 +6813,15 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>9496</v>
+        <v>9391</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>NYKU3128015</t>
+          <t>TCLU4740636</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
@@ -6922,17 +6845,17 @@
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>KOTA WAJAR</t>
+          <t>KOTA BINTANG</t>
         </is>
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>2735/2018</t>
+          <t>2620/2018</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
@@ -6946,23 +6869,23 @@
       <c r="O55" s="0"/>
       <c r="P55" s="0" t="inlineStr">
         <is>
-          <t>FISH MEAL</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>8097552</v>
+        <v>10235</v>
       </c>
       <c r="R55" s="0"/>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>2018-15330</t>
+          <t>2018-15413</t>
         </is>
       </c>
       <c r="T55" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-05T00:00:00</v>
       </c>
       <c r="U55" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="V55" s="0" t="inlineStr">
         <is>
@@ -6979,11 +6902,11 @@
       </c>
       <c r="Y55" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU93305701</t>
+          <t>ONEYRICUC5999800</t>
         </is>
       </c>
       <c r="Z55" s="0" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA55" s="0"/>
       <c r="AB55" s="0" t="inlineStr">
@@ -6995,11 +6918,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>9497</v>
+        <v>9496</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>TRHU2703362</t>
+          <t>NYKU3128015</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -7055,12 +6978,12 @@
         </is>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>8097550</v>
+        <v>8097552</v>
       </c>
       <c r="R56" s="0"/>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>2018-15331</t>
+          <t>2018-15330</t>
         </is>
       </c>
       <c r="T56" s="0" t="d">
@@ -7100,15 +7023,15 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>9498</v>
+        <v>9497</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>DRYU4084532</t>
+          <t>TRHU2703362</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
@@ -7142,7 +7065,7 @@
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>AL BARAKA POULTRY &amp; FISH FEED IND.</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
@@ -7156,16 +7079,16 @@
       <c r="O57" s="0"/>
       <c r="P57" s="0" t="inlineStr">
         <is>
-          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
+          <t>FISH MEAL</t>
         </is>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>21788177</v>
+        <v>8097550</v>
       </c>
       <c r="R57" s="0"/>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>2018-15336</t>
+          <t>2018-15331</t>
         </is>
       </c>
       <c r="T57" s="0" t="d">
@@ -7189,11 +7112,11 @@
       </c>
       <c r="Y57" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICUE9430800</t>
+          <t>ONEYRICU93305701</t>
         </is>
       </c>
       <c r="Z57" s="0" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AA57" s="0"/>
       <c r="AB57" s="0" t="inlineStr">
@@ -7205,11 +7128,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>9499</v>
+        <v>9498</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>NYKU0713361</t>
+          <t>DRYU4084532</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7217,7 +7140,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -7265,12 +7188,12 @@
         </is>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>21788176</v>
+        <v>21788177</v>
       </c>
       <c r="R58" s="0"/>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>2018-15335</t>
+          <t>2018-15336</t>
         </is>
       </c>
       <c r="T58" s="0" t="d">
@@ -7310,11 +7233,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>9549</v>
+        <v>9499</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>TCNU7867920</t>
+          <t>NYKU0713361</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7342,17 +7265,17 @@
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>KOTA WAJAR</t>
         </is>
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>2704/2018</t>
+          <t>2735/2018</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>SONALI PAPER &amp; BOARD MILLS LTD</t>
+          <t>AL BARAKA POULTRY &amp; FISH FEED IND.</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -7366,22 +7289,20 @@
       <c r="O59" s="0"/>
       <c r="P59" s="0" t="inlineStr">
         <is>
-          <t>WASTE  PAPER</t>
-        </is>
-      </c>
-      <c r="Q59" s="0" t="inlineStr">
-        <is>
-          <t>LKAA11734</t>
-        </is>
+          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
+        </is>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>21788176</v>
       </c>
       <c r="R59" s="0"/>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>2018-15364</t>
+          <t>2018-15335</t>
         </is>
       </c>
       <c r="T59" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="U59" s="0" t="d">
         <v>2018-09-12T00:00:00</v>
@@ -7401,11 +7322,11 @@
       </c>
       <c r="Y59" s="0" t="inlineStr">
         <is>
-          <t>ONEYCMBU07003700</t>
+          <t>ONEYRICUE9430800</t>
         </is>
       </c>
       <c r="Z59" s="0" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AA59" s="0"/>
       <c r="AB59" s="0" t="inlineStr">
@@ -7417,11 +7338,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>9550</v>
+        <v>9549</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>KKFU7555457</t>
+          <t>TCNU7867920</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7478,20 +7399,20 @@
       </c>
       <c r="Q60" s="0" t="inlineStr">
         <is>
-          <t>LKAA11739</t>
+          <t>LKAA11734</t>
         </is>
       </c>
       <c r="R60" s="0"/>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>2018-15412</t>
+          <t>2018-15364</t>
         </is>
       </c>
       <c r="T60" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U60" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V60" s="0" t="inlineStr">
         <is>
@@ -7524,11 +7445,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>9551</v>
+        <v>9550</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>TCNU7614027</t>
+          <t>KKFU7555457</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7585,13 +7506,13 @@
       </c>
       <c r="Q61" s="0" t="inlineStr">
         <is>
-          <t>LKAA11736</t>
+          <t>LKAA11739</t>
         </is>
       </c>
       <c r="R61" s="0"/>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>2018-15416</t>
+          <t>2018-15412</t>
         </is>
       </c>
       <c r="T61" s="0" t="d">
@@ -7631,11 +7552,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>9552</v>
+        <v>9551</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>TCLU8836438</t>
+          <t>TCNU7614027</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7692,13 +7613,13 @@
       </c>
       <c r="Q62" s="0" t="inlineStr">
         <is>
-          <t>LKAA11721</t>
+          <t>LKAA11736</t>
         </is>
       </c>
       <c r="R62" s="0"/>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>2018-15415</t>
+          <t>2018-15416</t>
         </is>
       </c>
       <c r="T62" s="0" t="d">
@@ -7738,11 +7659,11 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>9553</v>
+        <v>9552</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>NYKU5770127</t>
+          <t>TCLU8836438</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
@@ -7799,13 +7720,13 @@
       </c>
       <c r="Q63" s="0" t="inlineStr">
         <is>
-          <t>LKAA11738</t>
+          <t>LKAA11721</t>
         </is>
       </c>
       <c r="R63" s="0"/>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>2018-15411</t>
+          <t>2018-15415</t>
         </is>
       </c>
       <c r="T63" s="0" t="d">
@@ -7845,11 +7766,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>9554</v>
+        <v>9553</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>TCLU7942034</t>
+          <t>NYKU5770127</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -7906,13 +7827,13 @@
       </c>
       <c r="Q64" s="0" t="inlineStr">
         <is>
-          <t>LKAA11733</t>
+          <t>LKAA11738</t>
         </is>
       </c>
       <c r="R64" s="0"/>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>2018-15418</t>
+          <t>2018-15411</t>
         </is>
       </c>
       <c r="T64" s="0" t="d">
@@ -7952,11 +7873,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>9555</v>
+        <v>9554</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>TEMU7199034</t>
+          <t>TCLU7942034</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -8013,13 +7934,13 @@
       </c>
       <c r="Q65" s="0" t="inlineStr">
         <is>
-          <t>LKAA11732</t>
+          <t>LKAA11733</t>
         </is>
       </c>
       <c r="R65" s="0"/>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>2018-15430</t>
+          <t>2018-15418</t>
         </is>
       </c>
       <c r="T65" s="0" t="d">
@@ -8059,11 +7980,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>9556</v>
+        <v>9555</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>TCNU4026950</t>
+          <t>TEMU7199034</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -8120,13 +8041,13 @@
       </c>
       <c r="Q66" s="0" t="inlineStr">
         <is>
-          <t>LKAA11740</t>
+          <t>LKAA11732</t>
         </is>
       </c>
       <c r="R66" s="0"/>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>2018-15414</t>
+          <t>2018-15430</t>
         </is>
       </c>
       <c r="T66" s="0" t="d">
@@ -8166,11 +8087,11 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>9557</v>
+        <v>9556</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>TCNU7828311</t>
+          <t>TCNU4026950</t>
         </is>
       </c>
       <c r="C67" s="0" t="n">
@@ -8227,13 +8148,13 @@
       </c>
       <c r="Q67" s="0" t="inlineStr">
         <is>
-          <t>LKAA11731</t>
+          <t>LKAA11740</t>
         </is>
       </c>
       <c r="R67" s="0"/>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>2018-15428</t>
+          <t>2018-15414</t>
         </is>
       </c>
       <c r="T67" s="0" t="d">
@@ -8273,11 +8194,11 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>9558</v>
+        <v>9557</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>TCLU1535031</t>
+          <t>TCNU7828311</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
@@ -8334,13 +8255,13 @@
       </c>
       <c r="Q68" s="0" t="inlineStr">
         <is>
-          <t>LKAA11735</t>
+          <t>LKAA11731</t>
         </is>
       </c>
       <c r="R68" s="0"/>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>2018-15422</t>
+          <t>2018-15428</t>
         </is>
       </c>
       <c r="T68" s="0" t="d">
@@ -8380,11 +8301,11 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>9559</v>
+        <v>9558</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>UETU5336031</t>
+          <t>TCLU1535031</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
@@ -8441,13 +8362,13 @@
       </c>
       <c r="Q69" s="0" t="inlineStr">
         <is>
-          <t>LKAA11737</t>
+          <t>LKAA11735</t>
         </is>
       </c>
       <c r="R69" s="0"/>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>2018-15420</t>
+          <t>2018-15422</t>
         </is>
       </c>
       <c r="T69" s="0" t="d">
@@ -8487,11 +8408,11 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>9590</v>
+        <v>9559</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>ONEU0099076</t>
+          <t>UETU5336031</t>
         </is>
       </c>
       <c r="C70" s="0" t="n">
@@ -8529,7 +8450,7 @@
       </c>
       <c r="J70" s="0" t="inlineStr">
         <is>
-          <t>PROVITA FEED LTD</t>
+          <t>SONALI PAPER &amp; BOARD MILLS LTD</t>
         </is>
       </c>
       <c r="K70" s="0" t="inlineStr">
@@ -8543,22 +8464,22 @@
       <c r="O70" s="0"/>
       <c r="P70" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
+          <t>WASTE  PAPER</t>
         </is>
       </c>
       <c r="Q70" s="0" t="inlineStr">
         <is>
-          <t>IN0045073</t>
+          <t>LKAA11737</t>
         </is>
       </c>
       <c r="R70" s="0"/>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>2018-15393</t>
+          <t>2018-15420</t>
         </is>
       </c>
       <c r="T70" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U70" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
@@ -8578,11 +8499,11 @@
       </c>
       <c r="Y70" s="0" t="inlineStr">
         <is>
-          <t>ONEYBLRU02906400</t>
+          <t>ONEYCMBU07003700</t>
         </is>
       </c>
       <c r="Z70" s="0" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA70" s="0"/>
       <c r="AB70" s="0" t="inlineStr">
@@ -8594,19 +8515,19 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>9649</v>
+        <v>9590</v>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>TEMU5133280</t>
+          <t>ONEU0099076</t>
         </is>
       </c>
       <c r="C71" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -8626,17 +8547,17 @@
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
-          <t>KOTA ARIF</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
-          <t>2680/2018</t>
+          <t>2704/2018</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
         <is>
-          <t>ARIFS (BANGLADESH) LTD</t>
+          <t>PROVITA FEED LTD</t>
         </is>
       </c>
       <c r="K71" s="0" t="inlineStr">
@@ -8650,24 +8571,26 @@
       <c r="O71" s="0"/>
       <c r="P71" s="0" t="inlineStr">
         <is>
-          <t>FISH MEAL</t>
-        </is>
-      </c>
-      <c r="Q71" s="0" t="n">
-        <v>8097522</v>
+          <t>ANIMAL FEED</t>
+        </is>
+      </c>
+      <c r="Q71" s="0" t="inlineStr">
+        <is>
+          <t>IN0045073</t>
+        </is>
       </c>
       <c r="R71" s="0"/>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>2018-15513</t>
+          <t>2018-15393</t>
         </is>
       </c>
       <c r="T71" s="0" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="U71" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="U71" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
       <c r="V71" s="0" t="inlineStr">
         <is>
           <t>CPA</t>
@@ -8683,11 +8606,11 @@
       </c>
       <c r="Y71" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICU88917600</t>
+          <t>ONEYBLRU02906400</t>
         </is>
       </c>
       <c r="Z71" s="0" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AA71" s="0"/>
       <c r="AB71" s="0" t="inlineStr">
@@ -8699,11 +8622,11 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>9650</v>
+        <v>9649</v>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>CAIU2005976</t>
+          <t>TEMU5133280</t>
         </is>
       </c>
       <c r="C72" s="0" t="n">
@@ -8759,12 +8682,12 @@
         </is>
       </c>
       <c r="Q72" s="0" t="n">
-        <v>8097531</v>
+        <v>8097522</v>
       </c>
       <c r="R72" s="0"/>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>2018-15517</t>
+          <t>2018-15513</t>
         </is>
       </c>
       <c r="T72" s="0" t="d">
@@ -8804,11 +8727,11 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>9651</v>
+        <v>9650</v>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>TCLU7207071</t>
+          <t>CAIU2005976</t>
         </is>
       </c>
       <c r="C73" s="0" t="n">
@@ -8864,12 +8787,12 @@
         </is>
       </c>
       <c r="Q73" s="0" t="n">
-        <v>8097532</v>
+        <v>8097531</v>
       </c>
       <c r="R73" s="0"/>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>2018-15519</t>
+          <t>2018-15517</t>
         </is>
       </c>
       <c r="T73" s="0" t="d">
@@ -8909,11 +8832,11 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>9652</v>
+        <v>9651</v>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>TRHU2316316</t>
+          <t>TCLU7207071</t>
         </is>
       </c>
       <c r="C74" s="0" t="n">
@@ -8969,12 +8892,12 @@
         </is>
       </c>
       <c r="Q74" s="0" t="n">
-        <v>8097524</v>
+        <v>8097532</v>
       </c>
       <c r="R74" s="0"/>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>2018-15514</t>
+          <t>2018-15519</t>
         </is>
       </c>
       <c r="T74" s="0" t="d">
@@ -9014,11 +8937,11 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>9653</v>
+        <v>9652</v>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>TRHU2438736</t>
+          <t>TRHU2316316</t>
         </is>
       </c>
       <c r="C75" s="0" t="n">
@@ -9074,12 +8997,12 @@
         </is>
       </c>
       <c r="Q75" s="0" t="n">
-        <v>8097526</v>
+        <v>8097524</v>
       </c>
       <c r="R75" s="0"/>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>2018-15520</t>
+          <t>2018-15514</t>
         </is>
       </c>
       <c r="T75" s="0" t="d">
@@ -9119,11 +9042,11 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>9654</v>
+        <v>9653</v>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>KKTU7316204</t>
+          <t>TRHU2438736</t>
         </is>
       </c>
       <c r="C76" s="0" t="n">
@@ -9179,12 +9102,12 @@
         </is>
       </c>
       <c r="Q76" s="0" t="n">
-        <v>8097527</v>
+        <v>8097526</v>
       </c>
       <c r="R76" s="0"/>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>2018-15518</t>
+          <t>2018-15520</t>
         </is>
       </c>
       <c r="T76" s="0" t="d">
@@ -9224,11 +9147,11 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>9655</v>
+        <v>9654</v>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>TRHU1866299</t>
+          <t>KKTU7316204</t>
         </is>
       </c>
       <c r="C77" s="0" t="n">
@@ -9284,12 +9207,12 @@
         </is>
       </c>
       <c r="Q77" s="0" t="n">
-        <v>8097521</v>
+        <v>8097527</v>
       </c>
       <c r="R77" s="0"/>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>2018-15533</t>
+          <t>2018-15518</t>
         </is>
       </c>
       <c r="T77" s="0" t="d">
@@ -9329,11 +9252,11 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>9656</v>
+        <v>9655</v>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>TRLU3939983</t>
+          <t>TRHU1866299</t>
         </is>
       </c>
       <c r="C78" s="0" t="n">
@@ -9389,12 +9312,12 @@
         </is>
       </c>
       <c r="Q78" s="0" t="n">
-        <v>8097528</v>
+        <v>8097521</v>
       </c>
       <c r="R78" s="0"/>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>2018-15545</t>
+          <t>2018-15533</t>
         </is>
       </c>
       <c r="T78" s="0" t="d">
@@ -9434,11 +9357,11 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>9657</v>
+        <v>9656</v>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>TRHU2714710</t>
+          <t>TRLU3939983</t>
         </is>
       </c>
       <c r="C79" s="0" t="n">
@@ -9494,12 +9417,12 @@
         </is>
       </c>
       <c r="Q79" s="0" t="n">
-        <v>8097525</v>
+        <v>8097528</v>
       </c>
       <c r="R79" s="0"/>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>2018-15544</t>
+          <t>2018-15545</t>
         </is>
       </c>
       <c r="T79" s="0" t="d">
@@ -9539,11 +9462,11 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>9658</v>
+        <v>9657</v>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>NYKU9772684</t>
+          <t>TRHU2714710</t>
         </is>
       </c>
       <c r="C80" s="0" t="n">
@@ -9599,12 +9522,12 @@
         </is>
       </c>
       <c r="Q80" s="0" t="n">
-        <v>8097529</v>
+        <v>8097525</v>
       </c>
       <c r="R80" s="0"/>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>2018-15543</t>
+          <t>2018-15544</t>
         </is>
       </c>
       <c r="T80" s="0" t="d">
@@ -9644,11 +9567,11 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>MOAU1453606</t>
+          <t>NYKU9772684</t>
         </is>
       </c>
       <c r="C81" s="0" t="n">
@@ -9704,12 +9627,12 @@
         </is>
       </c>
       <c r="Q81" s="0" t="n">
-        <v>8097530</v>
+        <v>8097529</v>
       </c>
       <c r="R81" s="0"/>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>2018-15547</t>
+          <t>2018-15543</t>
         </is>
       </c>
       <c r="T81" s="0" t="d">
@@ -9749,11 +9672,11 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>9660</v>
+        <v>9659</v>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>TCLU3428325</t>
+          <t>MOAU1453606</t>
         </is>
       </c>
       <c r="C82" s="0" t="n">
@@ -9809,12 +9732,12 @@
         </is>
       </c>
       <c r="Q82" s="0" t="n">
-        <v>8097523</v>
+        <v>8097530</v>
       </c>
       <c r="R82" s="0"/>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>2018-15546</t>
+          <t>2018-15547</t>
         </is>
       </c>
       <c r="T82" s="0" t="d">
@@ -9854,19 +9777,19 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>9726</v>
+        <v>9660</v>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>NYKU5927113</t>
+          <t>TCLU3428325</t>
         </is>
       </c>
       <c r="C83" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -9886,17 +9809,17 @@
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>MARGARET RIVER BRIDGE</t>
+          <t>KOTA ARIF</t>
         </is>
       </c>
       <c r="I83" s="0" t="inlineStr">
         <is>
-          <t>2767/2018</t>
+          <t>2680/2018</t>
         </is>
       </c>
       <c r="J83" s="0" t="inlineStr">
         <is>
-          <t>GREEN LINE SHIPPING</t>
+          <t>ARIFS (BANGLADESH) LTD</t>
         </is>
       </c>
       <c r="K83" s="0" t="inlineStr">
@@ -9910,23 +9833,23 @@
       <c r="O83" s="0"/>
       <c r="P83" s="0" t="inlineStr">
         <is>
-          <t>ANIMAL FEED</t>
+          <t>FISH MEAL</t>
         </is>
       </c>
       <c r="Q83" s="0" t="n">
-        <v>1186395</v>
+        <v>8097523</v>
       </c>
       <c r="R83" s="0"/>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>2018-15631</t>
+          <t>2018-15546</t>
         </is>
       </c>
       <c r="T83" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="U83" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-09-15T00:00:00</v>
       </c>
       <c r="V83" s="0" t="inlineStr">
         <is>
@@ -9943,11 +9866,11 @@
       </c>
       <c r="Y83" s="0" t="inlineStr">
         <is>
-          <t>ONEYRICUE9517700</t>
+          <t>ONEYRICU88917600</t>
         </is>
       </c>
       <c r="Z83" s="0" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AA83" s="0"/>
       <c r="AB83" s="0" t="inlineStr">
@@ -9959,11 +9882,11 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>9727</v>
+        <v>9726</v>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>TCLU8945758</t>
+          <t>NYKU5927113</t>
         </is>
       </c>
       <c r="C84" s="0" t="n">
@@ -10019,12 +9942,12 @@
         </is>
       </c>
       <c r="Q84" s="0" t="n">
-        <v>1186396</v>
+        <v>1186395</v>
       </c>
       <c r="R84" s="0"/>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>2018-15633</t>
+          <t>2018-15631</t>
         </is>
       </c>
       <c r="T84" s="0" t="d">
@@ -10064,11 +9987,11 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>9728</v>
+        <v>9727</v>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>TCLU4215941</t>
+          <t>TCLU8945758</t>
         </is>
       </c>
       <c r="C85" s="0" t="n">
@@ -10076,7 +9999,7 @@
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E85" s="0" t="inlineStr">
@@ -10124,12 +10047,12 @@
         </is>
       </c>
       <c r="Q85" s="0" t="n">
-        <v>1186399</v>
+        <v>1186396</v>
       </c>
       <c r="R85" s="0"/>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>2018-15634</t>
+          <t>2018-15633</t>
         </is>
       </c>
       <c r="T85" s="0" t="d">
@@ -10169,11 +10092,11 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>9729</v>
+        <v>9728</v>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>TCLU4684620</t>
+          <t>TCLU4215941</t>
         </is>
       </c>
       <c r="C86" s="0" t="n">
@@ -10229,12 +10152,12 @@
         </is>
       </c>
       <c r="Q86" s="0" t="n">
-        <v>1186398</v>
+        <v>1186399</v>
       </c>
       <c r="R86" s="0"/>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>2018-15632</t>
+          <t>2018-15634</t>
         </is>
       </c>
       <c r="T86" s="0" t="d">
@@ -10274,11 +10197,11 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>9730</v>
+        <v>9729</v>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>TCNU4694142</t>
+          <t>TCLU4684620</t>
         </is>
       </c>
       <c r="C87" s="0" t="n">
@@ -10286,7 +10209,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -10306,17 +10229,17 @@
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
-          <t>CALA PAGURO</t>
+          <t>MARGARET RIVER BRIDGE</t>
         </is>
       </c>
       <c r="I87" s="0" t="inlineStr">
         <is>
-          <t>2775/2018</t>
+          <t>2767/2018</t>
         </is>
       </c>
       <c r="J87" s="0" t="inlineStr">
         <is>
-          <t>S.M. INTERNATIONAL</t>
+          <t>GREEN LINE SHIPPING</t>
         </is>
       </c>
       <c r="K87" s="0" t="inlineStr">
@@ -10330,22 +10253,20 @@
       <c r="O87" s="0"/>
       <c r="P87" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="Q87" s="0" t="inlineStr">
-        <is>
-          <t>MOLBX75788</t>
-        </is>
+          <t>ANIMAL FEED</t>
+        </is>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <v>1186398</v>
       </c>
       <c r="R87" s="0"/>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>2018-15638</t>
+          <t>2018-15632</t>
         </is>
       </c>
       <c r="T87" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="U87" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
@@ -10365,11 +10286,11 @@
       </c>
       <c r="Y87" s="0" t="inlineStr">
         <is>
-          <t>ONEYSUBU09121900</t>
+          <t>ONEYRICUE9517700</t>
         </is>
       </c>
       <c r="Z87" s="0" t="n">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="AA87" s="0"/>
       <c r="AB87" s="0" t="inlineStr">
@@ -10381,11 +10302,11 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>9732</v>
+        <v>9730</v>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>TCLU5363481</t>
+          <t>TCNU4694142</t>
         </is>
       </c>
       <c r="C88" s="0" t="n">
@@ -10413,17 +10334,17 @@
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
-          <t>KOTA ARIF</t>
+          <t>CALA PAGURO</t>
         </is>
       </c>
       <c r="I88" s="0" t="inlineStr">
         <is>
-          <t>2680/2018</t>
+          <t>2775/2018</t>
         </is>
       </c>
       <c r="J88" s="0" t="inlineStr">
         <is>
-          <t>C.B.C CORPORATION</t>
+          <t>S.M. INTERNATIONAL</t>
         </is>
       </c>
       <c r="K88" s="0" t="inlineStr">
@@ -10437,22 +10358,22 @@
       <c r="O88" s="0"/>
       <c r="P88" s="0" t="inlineStr">
         <is>
-          <t>CARBON BLACK</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="Q88" s="0" t="inlineStr">
         <is>
-          <t>CNA498593</t>
+          <t>MOLBX75788</t>
         </is>
       </c>
       <c r="R88" s="0"/>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>2018-15651</t>
+          <t>2018-15638</t>
         </is>
       </c>
       <c r="T88" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="U88" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
@@ -10472,11 +10393,11 @@
       </c>
       <c r="Y88" s="0" t="inlineStr">
         <is>
-          <t>ONEYTA8PI0444900</t>
+          <t>ONEYSUBU09121900</t>
         </is>
       </c>
       <c r="Z88" s="0" t="n">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AA88" s="0"/>
       <c r="AB88" s="0" t="inlineStr">
@@ -10486,14 +10407,122 @@
       </c>
       <c r="AC88" s="0"/>
     </row>
+    <row r="89">
+      <c r="A89" s="0" t="n">
+        <v>9732</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>TCLU5363481</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>ONB</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>ONE</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>KOTA ARIF</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>2680/2018</t>
+        </is>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>C.B.C CORPORATION</t>
+        </is>
+      </c>
+      <c r="K89" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L89" s="0"/>
+      <c r="M89" s="0"/>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0" t="inlineStr">
+        <is>
+          <t>CARBON BLACK</t>
+        </is>
+      </c>
+      <c r="Q89" s="0" t="inlineStr">
+        <is>
+          <t>CNA498593</t>
+        </is>
+      </c>
+      <c r="R89" s="0"/>
+      <c r="S89" s="0" t="inlineStr">
+        <is>
+          <t>2018-15651</t>
+        </is>
+      </c>
+      <c r="T89" s="0" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="U89" s="0" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="V89" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="W89" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="X89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="0" t="inlineStr">
+        <is>
+          <t>ONEYTA8PI0444900</t>
+        </is>
+      </c>
+      <c r="Z89" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA89" s="0"/>
+      <c r="AB89" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC89" s="0"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -10722,12 +10751,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -10741,7 +10771,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -10799,148 +10829,156 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
